--- a/Report_Folder/Report_5.xlsx
+++ b/Report_Folder/Report_5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+  <si>
+    <t>Funktion erlebbar nach [s] nach Aufstart</t>
+  </si>
   <si>
     <t>Total [n]</t>
   </si>
@@ -112,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,22 +175,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -225,7 +223,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -259,7 +257,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -294,10 +291,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -470,195 +466,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B30">
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
         <v>9</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>89</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>1</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>6</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32">
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
         <v>100</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>4</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>4</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B35">
+      <c r="D35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
         <v>1</v>
       </c>
     </row>
